--- a/data/比赛58成绩模板.xlsx
+++ b/data/比赛58成绩模板.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -388,57 +388,69 @@
         <v>赛事名称</v>
       </c>
       <c r="C1" t="str">
+        <v>学号</v>
+      </c>
+      <c r="D1" t="str">
         <v>姓名</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>成绩</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="str">
+        <v>125</v>
       </c>
       <c r="B2" t="str">
         <v>比赛58</v>
       </c>
       <c r="C2" t="str">
+        <v>125</v>
+      </c>
+      <c r="D2" t="str">
         <v>567</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" t="str">
+        <v>124</v>
       </c>
       <c r="B3" t="str">
         <v>比赛58</v>
       </c>
       <c r="C3" t="str">
+        <v>124</v>
+      </c>
+      <c r="D3" t="str">
         <v>799</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>7</v>
+      <c r="A4" t="str">
+        <v>123</v>
       </c>
       <c r="B4" t="str">
         <v>比赛58</v>
       </c>
       <c r="C4" t="str">
+        <v>123</v>
+      </c>
+      <c r="D4" t="str">
         <v>234</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/比赛58成绩模板.xlsx
+++ b/data/比赛58成绩模板.xlsx
@@ -398,8 +398,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>125</v>
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2" t="str">
         <v>比赛58</v>
@@ -415,8 +415,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>124</v>
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3" t="str">
         <v>比赛58</v>
@@ -432,8 +432,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>123</v>
+      <c r="A4">
+        <v>7</v>
       </c>
       <c r="B4" t="str">
         <v>比赛58</v>
